--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/15/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.566</v>
+        <v>-12.934</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.762</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.21</v>
+        <v>-21.882</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.676</v>
+        <v>-13.002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.252</v>
+        <v>-12.049</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.446</v>
+        <v>-12.929</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
